--- a/xlsx/_wiki_古塔街道_intext.xlsx
+++ b/xlsx/_wiki_古塔街道_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>古塔街道</t>
   </si>
@@ -258,12 +258,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
 </sst>
 </file>
@@ -612,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1606,29 +1600,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>43</v>
-      </c>
-      <c r="E44" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_古塔街道_intext.xlsx
+++ b/xlsx/_wiki_古塔街道_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>古塔街道</t>
   </si>
@@ -23,241 +23,232 @@
     <t>https://zh.wikipedia.org/zh-cn/%E5%8F%A4%E5%A1%94%E8%A1%97%E9%81%93</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>中华人民共和国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%9D%E5%8D%97%E5%8E%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B1%9D%E5%8D%97%E5%8E%BF</t>
   </si>
   <si>
     <t>汝南县</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E7%BA%A7%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B9%A1%E7%BA%A7%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
   </si>
   <si>
     <t>乡级行政区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E9%81%93%E5%8A%9E%E4%BA%8B%E5%A4%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%97%E9%81%93%E5%8A%9E%E4%BA%8B%E5%A4%84</t>
   </si>
   <si>
     <t>街道办事处</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92%E4%BB%A3%E7%A0%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92%E4%BB%A3%E7%A0%81</t>
   </si>
   <si>
     <t>中华人民共和国行政区划代码</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
   </si>
   <si>
     <t>中国行政区划</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8C%BA_(%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A4%BE%E5%8C%BA_(%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92)</t>
   </si>
   <si>
     <t>社区 (行政区划)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%91</t>
   </si>
   <si>
     <t>村</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7</t>
   </si>
   <si>
     <t>中华人民共和国电话区号</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
   </si>
   <si>
     <t>国际冠码</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>国际电话区号列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%B6%E5%8C%BA</t>
   </si>
   <si>
     <t>时区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/UTC%2B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/UTC%2B8</t>
   </si>
   <si>
     <t>UTC+8</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E6%97%B6%E9%97%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8C%97%E4%BA%AC%E6%97%B6%E9%97%B4</t>
   </si>
   <si>
     <t>北京时间</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8D%97%E7%9C%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B2%B3%E5%8D%97%E7%9C%81</t>
   </si>
   <si>
     <t>河南省</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%BB%E9%A9%AC%E5%BA%97%E5%B8%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A9%BB%E9%A9%AC%E5%BA%97%E5%B8%82</t>
   </si>
   <si>
     <t>驻马店市</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B9%A1%E9%95%87</t>
   </si>
   <si>
     <t>乡镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%BB%9F%E8%AE%A1%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%BB%9F%E8%AE%A1%E5%B1%80</t>
   </si>
   <si>
     <t>中华人民共和国国家统计局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
   </si>
   <si>
     <t>行政区划</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92%E5%B0%8F%E4%BD%9C%E5%93%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/Template_talk:%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92%E5%B0%8F%E4%BD%9C%E5%93%81</t>
   </si>
   <si>
     <t>Template talk-行政区划小作品</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%9D%E5%AE%81%E8%A1%97%E9%81%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B1%9D%E5%AE%81%E8%A1%97%E9%81%93</t>
   </si>
   <si>
     <t>汝宁街道</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%97%A8%E9%97%B8%E8%A1%97%E9%81%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%89%E9%97%A8%E9%97%B8%E8%A1%97%E9%81%93</t>
   </si>
   <si>
     <t>三门闸街道</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%BB%BA%E5%88%B6%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%8C%E6%94%BF%E5%BB%BA%E5%88%B6%E9%95%87</t>
   </si>
   <si>
     <t>行政建制镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%B2%97%E9%95%87_(%E6%B1%9D%E5%8D%97%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8E%8B%E5%B2%97%E9%95%87_(%E6%B1%9D%E5%8D%97%E5%8E%BF)</t>
   </si>
   <si>
     <t>王岗镇 (汝南县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E7%A5%9D%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A2%81%E7%A5%9D%E9%95%87</t>
   </si>
   <si>
     <t>梁祝镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%AD%9D%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%92%8C%E5%AD%9D%E9%95%87</t>
   </si>
   <si>
     <t>和孝镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E5%90%9B%E5%BA%99%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%80%81%E5%90%9B%E5%BA%99%E9%95%87</t>
   </si>
   <si>
     <t>老君庙镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%95%99%E7%9B%86%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%95%99%E7%9B%86%E9%95%87</t>
   </si>
   <si>
     <t>留盆镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%93%BA%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%87%91%E9%93%BA%E9%95%87</t>
   </si>
   <si>
     <t>金铺镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%AE%98%E5%BA%84%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%9C%E5%AE%98%E5%BA%84%E9%95%87</t>
   </si>
   <si>
     <t>东官庄镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E5%85%B4%E9%95%87_(%E6%B1%9D%E5%8D%97%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B8%B8%E5%85%B4%E9%95%87_(%E6%B1%9D%E5%8D%97%E5%8E%BF)</t>
   </si>
   <si>
     <t>常兴镇 (汝南县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BA%97%E9%95%87_(%E6%B1%9D%E5%8D%97%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BD%97%E5%BA%97%E9%95%87_(%E6%B1%9D%E5%8D%97%E5%8E%BF)</t>
   </si>
   <si>
     <t>罗店镇 (汝南县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%A1%A5%E4%B9%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%89%E6%A1%A5%E4%B9%A1</t>
   </si>
   <si>
     <t>三桥乡</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BD%99%E5%BA%97%E4%B9%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%97%E4%BD%99%E5%BA%97%E4%B9%A1</t>
   </si>
   <si>
     <t>南余店乡</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%BA%84%E4%B9%A1_(%E6%B1%9D%E5%8D%97%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9F%A9%E5%BA%84%E4%B9%A1_(%E6%B1%9D%E5%8D%97%E5%8E%BF)</t>
   </si>
   <si>
     <t>韩庄乡 (汝南县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E6%A5%BC%E9%95%87_(%E6%B1%9D%E5%8D%97%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BC%A0%E6%A5%BC%E9%95%87_(%E6%B1%9D%E5%8D%97%E5%8E%BF)</t>
   </si>
   <si>
     <t>张楼镇 (汝南县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E5%BA%97%E4%B9%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%BF%E5%BA%97%E4%B9%A1</t>
   </si>
   <si>
     <t>板店乡</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8D%97%E7%9C%81%E4%B9%A1%E7%BA%A7%E4%BB%A5%E4%B8%8A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B2%B3%E5%8D%97%E7%9C%81%E4%B9%A1%E7%BA%A7%E4%BB%A5%E4%B8%8A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>河南省乡级以上行政区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%A1%94%E8%A1%97%E9%81%93</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -606,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1554,52 +1545,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>41</v>
-      </c>
-      <c r="E42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>42</v>
-      </c>
-      <c r="E43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
